--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_VietGlobal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>LE.2.00.---12.190731</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.084.010,08102</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa</t>
+  </si>
+  <si>
+    <t>Xử lý lại main, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -655,6 +667,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,38 +709,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,43 +1054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1123,58 +1135,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1199,23 +1211,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1262,7 @@
       <c r="M6" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="59">
         <v>375000</v>
       </c>
       <c r="O6" s="1"/>
@@ -1265,7 +1277,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1322,7 +1334,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1377,7 +1389,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1413,9 @@
       <c r="G9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="I9" s="51" t="s">
         <v>82</v>
       </c>
@@ -1409,16 +1423,28 @@
       <c r="K9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1443,19 +1469,37 @@
         <v>63</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1528,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +1557,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1544,7 +1588,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1617,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1602,7 +1646,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1675,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1793,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2218,7 +2262,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2282,7 +2326,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3347,6 +3391,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3358,13 +3409,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3408,43 +3452,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3489,58 +3533,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3565,23 +3609,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3607,7 +3651,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3638,7 +3682,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3667,7 +3711,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3696,7 +3740,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3725,7 +3769,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3754,7 +3798,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3783,7 +3827,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3814,7 +3858,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3843,7 +3887,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3872,7 +3916,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3901,7 +3945,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5132,6 +5176,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5143,13 +5194,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_VietGlobal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -273,12 +273,6 @@
     <t>Module GSM/GPS bị oxi hóa</t>
   </si>
   <si>
-    <t>Thay module GSM/GPS</t>
-  </si>
-  <si>
-    <t>GSM,GSP</t>
-  </si>
-  <si>
     <t>210.245.094.060,08102</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>Xử lý lại main, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Báo giá không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -670,6 +670,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,30 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1054,43 +1054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1135,58 +1135,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1211,23 +1211,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,9 @@
       <c r="B6" s="54">
         <v>44754</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44771</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1260,12 +1262,12 @@
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="59">
-        <v>375000</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="P6" s="39" t="s">
         <v>71</v>
       </c>
@@ -1273,11 +1275,11 @@
         <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1292,7 +1294,9 @@
       <c r="B7" s="54">
         <v>44754</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44771</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1334,7 +1338,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1347,7 +1351,9 @@
       <c r="B8" s="54">
         <v>44754</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44771</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1408,9 @@
       <c r="B9" s="54">
         <v>44754</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44771</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1414,14 +1422,14 @@
         <v>63</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L9" s="39" t="s">
         <v>64</v>
@@ -1444,7 +1452,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1457,7 +1465,9 @@
       <c r="B10" s="54">
         <v>44754</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44771</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -1470,10 +1480,10 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="38" t="s">
         <v>77</v>
@@ -1482,7 +1492,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
@@ -1499,7 +1509,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1528,7 +1538,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +1567,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1588,7 +1598,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1617,7 +1627,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1646,7 +1656,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1685,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2444,7 +2454,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -3391,13 +3401,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3409,6 +3412,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,43 +3462,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3533,58 +3543,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3609,23 +3619,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="74"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,7 +3661,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3682,7 +3692,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3711,7 +3721,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3740,7 +3750,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3769,7 +3779,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3798,7 +3808,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3827,7 +3837,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3858,7 +3868,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3887,7 +3897,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3916,7 +3926,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3945,7 +3955,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5176,13 +5186,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5194,6 +5197,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
